--- a/quizz-products.xlsx
+++ b/quizz-products.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7be2adeba9231ed7/Documents/_work/AltCare/_projets/mental-booster/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\server\AltCare\mental-booster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{0C4588CA-0064-4ED2-840E-63BDD4A03384}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{95174523-FBD8-4765-91E5-3AA9731F2809}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13A10BD-AED1-44BC-BCC6-059DB947166A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9308EEF9-3760-412E-BB88-D2E657856B22}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>Acétylcholine</t>
   </si>
@@ -150,12 +150,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>http://www.google.com</t>
-  </si>
-  <si>
     <t>1 sachet/jour</t>
   </si>
   <si>
@@ -192,12 +186,6 @@
     <t>magnesium.jpg</t>
   </si>
   <si>
-    <t>KUDZU</t>
-  </si>
-  <si>
-    <t>kudzu.jpg</t>
-  </si>
-  <si>
     <t>neuro</t>
   </si>
   <si>
@@ -205,6 +193,87 @@
   </si>
   <si>
     <t>3 gélules/jour</t>
+  </si>
+  <si>
+    <t>recgQeFCcozZMx7kX</t>
+  </si>
+  <si>
+    <t>recgQDb1KQRq62GSz</t>
+  </si>
+  <si>
+    <t>recsM9Z0jZlJMnd13</t>
+  </si>
+  <si>
+    <t>recvQLElSeFMKTDuz</t>
+  </si>
+  <si>
+    <t>recRrScaTxXGXMCiG</t>
+  </si>
+  <si>
+    <t>rec113AIi6JgesdM6</t>
+  </si>
+  <si>
+    <t>recJSIRWaDT6LJkWI</t>
+  </si>
+  <si>
+    <t>recRidqCqt7rYbnYd</t>
+  </si>
+  <si>
+    <t>recYxnL4vYJ5ddsA2</t>
+  </si>
+  <si>
+    <t>recArqC65GlSAUyD3</t>
+  </si>
+  <si>
+    <t>recXlBjnmUPtHOXnG</t>
+  </si>
+  <si>
+    <t>recHRtkl8tW8uh1TA</t>
+  </si>
+  <si>
+    <t>recILMLxhX4cRXGf3</t>
+  </si>
+  <si>
+    <t>recn98eUDooViXVrT</t>
+  </si>
+  <si>
+    <t>recCYEk2Ejf9cBIMf</t>
+  </si>
+  <si>
+    <t>recReiLJYftqj7CdH</t>
+  </si>
+  <si>
+    <t>recmbjZ2EW5pcq1gw</t>
+  </si>
+  <si>
+    <t>recFeOizNqBs1OHOJ</t>
+  </si>
+  <si>
+    <t>recGCTHzVCKVf4KJY</t>
+  </si>
+  <si>
+    <t>recN39rQBzs7rl1mZ</t>
+  </si>
+  <si>
+    <t>4 gélules/jour</t>
+  </si>
+  <si>
+    <t>reckMfjeHK5BLrGl1</t>
+  </si>
+  <si>
+    <t>recQEVkx8bsORZWV4</t>
+  </si>
+  <si>
+    <t>1 à 2 gélules/jour</t>
+  </si>
+  <si>
+    <t>recS00SYT1Sv6tTZg</t>
+  </si>
+  <si>
+    <t>recViOeKYEeg4S23F</t>
+  </si>
+  <si>
+    <t>productId</t>
   </si>
 </sst>
 </file>
@@ -295,7 +364,7 @@
     <tableColumn id="5" xr3:uid="{B6642B6D-350B-4CD4-8E3A-BC0B187A3615}" name="dMoy" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{C3478867-E49B-4D19-AF77-26B71C8906EC}" name="dMax" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{297A928C-E67A-4609-B81B-FB0EAC31E717}" name="file" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{6C95C2E1-4706-4C81-A34E-FB514D74336F}" name="link"/>
+    <tableColumn id="7" xr3:uid="{6C95C2E1-4706-4C81-A34E-FB514D74336F}" name="productId"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -598,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4AAF82-620D-4996-B706-DED277CE24FF}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,13 +687,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
@@ -639,7 +708,7 @@
         <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -691,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -743,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -769,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -795,7 +864,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -821,7 +890,7 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -847,7 +916,7 @@
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -873,7 +942,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -899,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -913,19 +982,19 @@
         <v>18</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -951,7 +1020,7 @@
         <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -977,7 +1046,7 @@
         <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -988,7 +1057,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1003,7 +1072,7 @@
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,7 +1098,7 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1055,29 +1124,41 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -1092,21 +1173,21 @@
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1118,18 +1199,18 @@
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1144,35 +1225,47 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -1184,18 +1277,21 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1207,47 +1303,36 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/quizz-products.xlsx
+++ b/quizz-products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\server\AltCare\mental-booster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13A10BD-AED1-44BC-BCC6-059DB947166A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C4967D-4F96-4BFB-9268-5426D583B8EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9308EEF9-3760-412E-BB88-D2E657856B22}"/>
   </bookViews>
@@ -354,8 +354,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC9B9478-F06A-4FEE-9091-DC03F73D183E}" name="Tableau1" displayName="Tableau1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26" xr:uid="{081771F7-55C3-4E37-9A34-E63860A633A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC9B9478-F06A-4FEE-9091-DC03F73D183E}" name="Tableau1" displayName="Tableau1" ref="A1:H25" totalsRowShown="0">
+  <autoFilter ref="A1:H25" xr:uid="{081771F7-55C3-4E37-9A34-E63860A633A0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2ECB8FEC-6446-4335-A8D1-0D3C79AC1123}" name="neuro"/>
     <tableColumn id="2" xr3:uid="{445D0FF1-446C-4D3B-A6A9-85C8EDA84CBF}" name="title"/>
@@ -670,7 +670,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/quizz-products.xlsx
+++ b/quizz-products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\server\AltCare\mental-booster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C4967D-4F96-4BFB-9268-5426D583B8EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AA6086-9330-40DC-92E1-B7600B2FB0C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9308EEF9-3760-412E-BB88-D2E657856B22}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
   <si>
     <t>Acétylcholine</t>
   </si>
@@ -195,85 +195,19 @@
     <t>3 gélules/jour</t>
   </si>
   <si>
-    <t>recgQeFCcozZMx7kX</t>
-  </si>
-  <si>
-    <t>recgQDb1KQRq62GSz</t>
-  </si>
-  <si>
-    <t>recsM9Z0jZlJMnd13</t>
-  </si>
-  <si>
-    <t>recvQLElSeFMKTDuz</t>
-  </si>
-  <si>
-    <t>recRrScaTxXGXMCiG</t>
-  </si>
-  <si>
-    <t>rec113AIi6JgesdM6</t>
-  </si>
-  <si>
-    <t>recJSIRWaDT6LJkWI</t>
-  </si>
-  <si>
-    <t>recRidqCqt7rYbnYd</t>
-  </si>
-  <si>
-    <t>recYxnL4vYJ5ddsA2</t>
-  </si>
-  <si>
-    <t>recArqC65GlSAUyD3</t>
-  </si>
-  <si>
-    <t>recXlBjnmUPtHOXnG</t>
-  </si>
-  <si>
-    <t>recHRtkl8tW8uh1TA</t>
-  </si>
-  <si>
-    <t>recILMLxhX4cRXGf3</t>
-  </si>
-  <si>
-    <t>recn98eUDooViXVrT</t>
-  </si>
-  <si>
-    <t>recCYEk2Ejf9cBIMf</t>
-  </si>
-  <si>
-    <t>recReiLJYftqj7CdH</t>
-  </si>
-  <si>
-    <t>recmbjZ2EW5pcq1gw</t>
-  </si>
-  <si>
-    <t>recFeOizNqBs1OHOJ</t>
-  </si>
-  <si>
-    <t>recGCTHzVCKVf4KJY</t>
-  </si>
-  <si>
-    <t>recN39rQBzs7rl1mZ</t>
-  </si>
-  <si>
     <t>4 gélules/jour</t>
   </si>
   <si>
-    <t>reckMfjeHK5BLrGl1</t>
-  </si>
-  <si>
-    <t>recQEVkx8bsORZWV4</t>
-  </si>
-  <si>
     <t>1 à 2 gélules/jour</t>
   </si>
   <si>
-    <t>recS00SYT1Sv6tTZg</t>
-  </si>
-  <si>
-    <t>recViOeKYEeg4S23F</t>
-  </si>
-  <si>
     <t>productId</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>http://www.google.com</t>
   </si>
 </sst>
 </file>
@@ -327,7 +261,10 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -354,17 +291,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC9B9478-F06A-4FEE-9091-DC03F73D183E}" name="Tableau1" displayName="Tableau1" ref="A1:H25" totalsRowShown="0">
-  <autoFilter ref="A1:H25" xr:uid="{081771F7-55C3-4E37-9A34-E63860A633A0}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC9B9478-F06A-4FEE-9091-DC03F73D183E}" name="Tableau1" displayName="Tableau1" ref="A1:I25" totalsRowShown="0">
+  <autoFilter ref="A1:I25" xr:uid="{081771F7-55C3-4E37-9A34-E63860A633A0}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2ECB8FEC-6446-4335-A8D1-0D3C79AC1123}" name="neuro"/>
     <tableColumn id="2" xr3:uid="{445D0FF1-446C-4D3B-A6A9-85C8EDA84CBF}" name="title"/>
     <tableColumn id="3" xr3:uid="{8F2DE4BB-CBF6-43DA-A318-0BD1FF810659}" name="desc"/>
     <tableColumn id="4" xr3:uid="{77C7B73A-9813-4759-8B68-C245C742D5B0}" name="dMin" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{B6642B6D-350B-4CD4-8E3A-BC0B187A3615}" name="dMoy" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{C3478867-E49B-4D19-AF77-26B71C8906EC}" name="dMax" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{297A928C-E67A-4609-B81B-FB0EAC31E717}" name="file" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{6C95C2E1-4706-4C81-A34E-FB514D74336F}" name="productId"/>
+    <tableColumn id="8" xr3:uid="{297A928C-E67A-4609-B81B-FB0EAC31E717}" name="file" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{658A6454-5526-43AC-A67E-DDEB20F3D2BE}" name="productId" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{6C95C2E1-4706-4C81-A34E-FB514D74336F}" name="link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -667,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4AAF82-620D-4996-B706-DED277CE24FF}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,11 +619,12 @@
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -707,11 +646,14 @@
       <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -733,11 +675,14 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -759,11 +704,14 @@
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -785,11 +733,14 @@
       <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -811,11 +762,14 @@
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -837,11 +791,14 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -863,11 +820,14 @@
       <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -889,11 +849,14 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -915,11 +878,14 @@
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="2">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -941,11 +907,14 @@
       <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -967,11 +936,14 @@
       <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -993,11 +965,14 @@
       <c r="G12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="2">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1019,11 +994,14 @@
       <c r="G13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="2">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1045,11 +1023,14 @@
       <c r="G14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="2">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1071,11 +1052,14 @@
       <c r="G15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1097,11 +1081,14 @@
       <c r="G16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="2">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1123,11 +1110,14 @@
       <c r="G17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="2">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1149,11 +1139,14 @@
       <c r="G18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1175,11 +1168,14 @@
       <c r="G19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1201,11 +1197,14 @@
       <c r="G20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1227,11 +1226,14 @@
       <c r="G21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1239,7 +1241,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1253,11 +1255,14 @@
       <c r="G22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1279,11 +1284,14 @@
       <c r="G23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1291,7 +1299,7 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1305,11 +1313,14 @@
       <c r="G24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1331,8 +1342,11 @@
       <c r="G25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H25" t="s">
-        <v>81</v>
+      <c r="H25" s="1">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
